--- a/docs/odh/shr-core-Communication-model.xlsx
+++ b/docs/odh/shr-core-Communication-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$4</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="47">
   <si>
     <t>Path</t>
   </si>
@@ -150,22 +150,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
-    <t>shr-core-Communication-model.languageQualifier</t>
-  </si>
-  <si>
-    <t>Additional information about a person's use of language.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/LanguageQualifierVS</t>
-  </si>
-  <si>
     <t>shr-core-Communication-model.preferred</t>
   </si>
   <si>
@@ -174,29 +158,6 @@
   </si>
   <si>
     <t>Indicates preference.</t>
-  </si>
-  <si>
-    <t>shr-core-Communication-model.spokenLanguageProficiency</t>
-  </si>
-  <si>
-    <t>Accuracy and fluency in spoken communication in a language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/PerformanceGradingScaleVS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0678997
-</t>
-  </si>
-  <si>
-    <t>shr-core-Communication-model.writtenLanguageProficiency</t>
-  </si>
-  <si>
-    <t>Accuracy and fluency of reading and writing in a language.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0586739
-</t>
   </si>
 </sst>
 </file>
@@ -345,7 +306,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -354,7 +315,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.15625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.79296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -364,7 +325,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="56.3359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="35.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -378,13 +339,13 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.03125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="55.15625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="38.79296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -660,7 +621,7 @@
         <v>36</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="s" s="2">
         <v>36</v>
@@ -692,7 +653,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -703,7 +664,7 @@
         <v>37</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>36</v>
@@ -715,7 +676,7 @@
         <v>36</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>46</v>
@@ -748,11 +709,13 @@
         <v>36</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="X4" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y4" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
         <v>36</v>
@@ -770,310 +733,23 @@
         <v>36</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" hidden="true">
-      <c r="A5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" hidden="true">
-      <c r="A6" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" hidden="true">
-      <c r="A7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI7" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI7">
+  <autoFilter ref="A1:AI4">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1083,7 +759,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI6">
+  <conditionalFormatting sqref="A2:AI3">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
